--- a/AAII_Financials/Yearly/KL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KL_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -711,25 +711,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3155300</v>
+        <v>3133700</v>
       </c>
       <c r="E8" s="3">
-        <v>1770000</v>
+        <v>1757800</v>
       </c>
       <c r="F8" s="3">
-        <v>1174700</v>
+        <v>1166700</v>
       </c>
       <c r="G8" s="3">
-        <v>958700</v>
+        <v>952200</v>
       </c>
       <c r="H8" s="3">
-        <v>517300</v>
+        <v>513800</v>
       </c>
       <c r="I8" s="3">
-        <v>330900</v>
+        <v>328600</v>
       </c>
       <c r="J8" s="3">
-        <v>362600</v>
+        <v>360200</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -738,25 +738,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1354200</v>
+        <v>1344900</v>
       </c>
       <c r="E9" s="3">
-        <v>623800</v>
+        <v>619600</v>
       </c>
       <c r="F9" s="3">
-        <v>548400</v>
+        <v>544600</v>
       </c>
       <c r="G9" s="3">
-        <v>587900</v>
+        <v>583900</v>
       </c>
       <c r="H9" s="3">
-        <v>597300</v>
+        <v>593300</v>
       </c>
       <c r="I9" s="3">
-        <v>253200</v>
+        <v>251500</v>
       </c>
       <c r="J9" s="3">
-        <v>309700</v>
+        <v>307600</v>
       </c>
       <c r="K9" s="3"/>
     </row>
@@ -765,25 +765,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1801100</v>
+        <v>1788700</v>
       </c>
       <c r="E10" s="3">
-        <v>1146100</v>
+        <v>1138300</v>
       </c>
       <c r="F10" s="3">
-        <v>626300</v>
+        <v>622100</v>
       </c>
       <c r="G10" s="3">
-        <v>370800</v>
+        <v>368300</v>
       </c>
       <c r="H10" s="3">
-        <v>-80000</v>
+        <v>-79500</v>
       </c>
       <c r="I10" s="3">
-        <v>77700</v>
+        <v>77200</v>
       </c>
       <c r="J10" s="3">
-        <v>52900</v>
+        <v>52600</v>
       </c>
       <c r="K10" s="3"/>
     </row>
@@ -805,25 +805,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>18500</v>
+        <v>18400</v>
       </c>
       <c r="E12" s="3">
-        <v>42900</v>
+        <v>42600</v>
       </c>
       <c r="F12" s="3">
-        <v>85400</v>
+        <v>84900</v>
       </c>
       <c r="G12" s="3">
-        <v>62100</v>
+        <v>61700</v>
       </c>
       <c r="H12" s="3">
-        <v>20300</v>
+        <v>20100</v>
       </c>
       <c r="I12" s="3">
-        <v>15400</v>
+        <v>15300</v>
       </c>
       <c r="J12" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="K12" s="3"/>
     </row>
@@ -859,7 +859,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>49700</v>
+        <v>49300</v>
       </c>
       <c r="E14" s="3">
         <v>1600</v>
@@ -874,10 +874,10 @@
         <v>2100</v>
       </c>
       <c r="I14" s="3">
-        <v>34000</v>
+        <v>33800</v>
       </c>
       <c r="J14" s="3">
-        <v>-9500</v>
+        <v>-9400</v>
       </c>
       <c r="K14" s="3"/>
     </row>
@@ -923,25 +923,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1585600</v>
+        <v>1574700</v>
       </c>
       <c r="E17" s="3">
-        <v>728100</v>
+        <v>723100</v>
       </c>
       <c r="F17" s="3">
-        <v>678300</v>
+        <v>673600</v>
       </c>
       <c r="G17" s="3">
-        <v>698600</v>
+        <v>693800</v>
       </c>
       <c r="H17" s="3">
-        <v>401500</v>
+        <v>398700</v>
       </c>
       <c r="I17" s="3">
-        <v>335300</v>
+        <v>333000</v>
       </c>
       <c r="J17" s="3">
-        <v>324200</v>
+        <v>322000</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -950,25 +950,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1569800</v>
+        <v>1559000</v>
       </c>
       <c r="E18" s="3">
-        <v>1041900</v>
+        <v>1034800</v>
       </c>
       <c r="F18" s="3">
-        <v>496500</v>
+        <v>493100</v>
       </c>
       <c r="G18" s="3">
-        <v>260100</v>
+        <v>258300</v>
       </c>
       <c r="H18" s="3">
-        <v>115900</v>
+        <v>115100</v>
       </c>
       <c r="I18" s="3">
         <v>-4400</v>
       </c>
       <c r="J18" s="3">
-        <v>38400</v>
+        <v>38200</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -990,13 +990,13 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-86800</v>
+        <v>-86200</v>
       </c>
       <c r="E20" s="3">
-        <v>-17000</v>
+        <v>-16900</v>
       </c>
       <c r="F20" s="3">
-        <v>11200</v>
+        <v>11100</v>
       </c>
       <c r="G20" s="3">
         <v>3700</v>
@@ -1005,7 +1005,7 @@
         <v>300</v>
       </c>
       <c r="I20" s="3">
-        <v>-3800</v>
+        <v>-3700</v>
       </c>
       <c r="J20" s="3">
         <v>-8400</v>
@@ -1017,25 +1017,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1967700</v>
+        <v>1962600</v>
       </c>
       <c r="E21" s="3">
-        <v>1238700</v>
+        <v>1233900</v>
       </c>
       <c r="F21" s="3">
-        <v>676900</v>
+        <v>675100</v>
       </c>
       <c r="G21" s="3">
-        <v>451900</v>
+        <v>452100</v>
       </c>
       <c r="H21" s="3">
         <v>190800</v>
       </c>
       <c r="I21" s="3">
-        <v>42300</v>
+        <v>42900</v>
       </c>
       <c r="J21" s="3">
-        <v>79900</v>
+        <v>80200</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -1053,10 +1053,10 @@
         <v>1900</v>
       </c>
       <c r="G22" s="3">
-        <v>12300</v>
+        <v>12200</v>
       </c>
       <c r="H22" s="3">
-        <v>13900</v>
+        <v>13800</v>
       </c>
       <c r="I22" s="3">
         <v>300</v>
@@ -1071,25 +1071,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1478500</v>
+        <v>1468300</v>
       </c>
       <c r="E23" s="3">
-        <v>1023700</v>
+        <v>1016700</v>
       </c>
       <c r="F23" s="3">
-        <v>505700</v>
+        <v>502300</v>
       </c>
       <c r="G23" s="3">
-        <v>251500</v>
+        <v>249800</v>
       </c>
       <c r="H23" s="3">
-        <v>102300</v>
+        <v>101600</v>
       </c>
       <c r="I23" s="3">
         <v>-8500</v>
       </c>
       <c r="J23" s="3">
-        <v>29500</v>
+        <v>29300</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -1098,25 +1098,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>468200</v>
+        <v>464900</v>
       </c>
       <c r="E24" s="3">
-        <v>305400</v>
+        <v>303300</v>
       </c>
       <c r="F24" s="3">
-        <v>154400</v>
+        <v>153300</v>
       </c>
       <c r="G24" s="3">
-        <v>49700</v>
+        <v>49400</v>
       </c>
       <c r="H24" s="3">
-        <v>42400</v>
+        <v>42100</v>
       </c>
       <c r="I24" s="3">
         <v>-4900</v>
       </c>
       <c r="J24" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="K24" s="3"/>
     </row>
@@ -1152,25 +1152,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1010300</v>
+        <v>1003400</v>
       </c>
       <c r="E26" s="3">
-        <v>718400</v>
+        <v>713400</v>
       </c>
       <c r="F26" s="3">
-        <v>351400</v>
+        <v>348900</v>
       </c>
       <c r="G26" s="3">
-        <v>201800</v>
+        <v>200400</v>
       </c>
       <c r="H26" s="3">
-        <v>59900</v>
+        <v>59500</v>
       </c>
       <c r="I26" s="3">
         <v>-3600</v>
       </c>
       <c r="J26" s="3">
-        <v>25600</v>
+        <v>25400</v>
       </c>
       <c r="K26" s="3"/>
     </row>
@@ -1179,25 +1179,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1010300</v>
+        <v>1003400</v>
       </c>
       <c r="E27" s="3">
-        <v>718400</v>
+        <v>713400</v>
       </c>
       <c r="F27" s="3">
-        <v>351400</v>
+        <v>348900</v>
       </c>
       <c r="G27" s="3">
-        <v>201800</v>
+        <v>200400</v>
       </c>
       <c r="H27" s="3">
-        <v>59900</v>
+        <v>59500</v>
       </c>
       <c r="I27" s="3">
         <v>-3600</v>
       </c>
       <c r="J27" s="3">
-        <v>25600</v>
+        <v>25400</v>
       </c>
       <c r="K27" s="3"/>
     </row>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-31900</v>
+        <v>-31700</v>
       </c>
       <c r="H29" s="3">
         <v>-5900</v>
@@ -1314,13 +1314,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>86800</v>
+        <v>86200</v>
       </c>
       <c r="E32" s="3">
-        <v>17000</v>
+        <v>16900</v>
       </c>
       <c r="F32" s="3">
-        <v>-11200</v>
+        <v>-11100</v>
       </c>
       <c r="G32" s="3">
         <v>-3700</v>
@@ -1329,7 +1329,7 @@
         <v>-300</v>
       </c>
       <c r="I32" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="J32" s="3">
         <v>8400</v>
@@ -1341,25 +1341,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1010300</v>
+        <v>1003400</v>
       </c>
       <c r="E33" s="3">
-        <v>718400</v>
+        <v>713400</v>
       </c>
       <c r="F33" s="3">
-        <v>351400</v>
+        <v>348900</v>
       </c>
       <c r="G33" s="3">
-        <v>169800</v>
+        <v>168700</v>
       </c>
       <c r="H33" s="3">
-        <v>54000</v>
+        <v>53600</v>
       </c>
       <c r="I33" s="3">
         <v>-3600</v>
       </c>
       <c r="J33" s="3">
-        <v>25600</v>
+        <v>25400</v>
       </c>
       <c r="K33" s="3"/>
     </row>
@@ -1395,25 +1395,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1010300</v>
+        <v>1003400</v>
       </c>
       <c r="E35" s="3">
-        <v>718400</v>
+        <v>713400</v>
       </c>
       <c r="F35" s="3">
-        <v>351400</v>
+        <v>348900</v>
       </c>
       <c r="G35" s="3">
-        <v>169800</v>
+        <v>168700</v>
       </c>
       <c r="H35" s="3">
-        <v>54000</v>
+        <v>53600</v>
       </c>
       <c r="I35" s="3">
         <v>-3600</v>
       </c>
       <c r="J35" s="3">
-        <v>25600</v>
+        <v>25400</v>
       </c>
       <c r="K35" s="3"/>
     </row>
@@ -1480,25 +1480,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1087200</v>
+        <v>1079700</v>
       </c>
       <c r="E41" s="3">
-        <v>907100</v>
+        <v>900800</v>
       </c>
       <c r="F41" s="3">
-        <v>426100</v>
+        <v>423200</v>
       </c>
       <c r="G41" s="3">
-        <v>297000</v>
+        <v>295000</v>
       </c>
       <c r="H41" s="3">
-        <v>301300</v>
+        <v>299200</v>
       </c>
       <c r="I41" s="3">
-        <v>46800</v>
+        <v>46500</v>
       </c>
       <c r="J41" s="3">
-        <v>86600</v>
+        <v>86000</v>
       </c>
       <c r="K41" s="3"/>
     </row>
@@ -1534,25 +1534,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>29700</v>
+        <v>29500</v>
       </c>
       <c r="E43" s="3">
-        <v>38700</v>
+        <v>38400</v>
       </c>
       <c r="F43" s="3">
-        <v>25800</v>
+        <v>25700</v>
       </c>
       <c r="G43" s="3">
-        <v>20100</v>
+        <v>20000</v>
       </c>
       <c r="H43" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="I43" s="3">
         <v>2500</v>
       </c>
       <c r="J43" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="K43" s="3"/>
     </row>
@@ -1561,25 +1561,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>191400</v>
+        <v>190100</v>
       </c>
       <c r="E44" s="3">
-        <v>61200</v>
+        <v>60700</v>
       </c>
       <c r="F44" s="3">
-        <v>51400</v>
+        <v>51100</v>
       </c>
       <c r="G44" s="3">
-        <v>53100</v>
+        <v>52800</v>
       </c>
       <c r="H44" s="3">
-        <v>52500</v>
+        <v>52100</v>
       </c>
       <c r="I44" s="3">
-        <v>27100</v>
+        <v>26900</v>
       </c>
       <c r="J44" s="3">
-        <v>26300</v>
+        <v>26100</v>
       </c>
       <c r="K44" s="3"/>
     </row>
@@ -1588,13 +1588,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>21400</v>
+        <v>21200</v>
       </c>
       <c r="E45" s="3">
-        <v>12300</v>
+        <v>12200</v>
       </c>
       <c r="F45" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="G45" s="3">
         <v>9100</v>
@@ -1606,7 +1606,7 @@
         <v>4100</v>
       </c>
       <c r="J45" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="K45" s="3"/>
     </row>
@@ -1615,25 +1615,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1329600</v>
+        <v>1320500</v>
       </c>
       <c r="E46" s="3">
-        <v>1019200</v>
+        <v>1012200</v>
       </c>
       <c r="F46" s="3">
-        <v>510400</v>
+        <v>506900</v>
       </c>
       <c r="G46" s="3">
-        <v>379400</v>
+        <v>376800</v>
       </c>
       <c r="H46" s="3">
-        <v>371800</v>
+        <v>369300</v>
       </c>
       <c r="I46" s="3">
-        <v>80500</v>
+        <v>79900</v>
       </c>
       <c r="J46" s="3">
-        <v>80500</v>
+        <v>79900</v>
       </c>
       <c r="K46" s="3"/>
     </row>
@@ -1642,16 +1642,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>127000</v>
+        <v>126200</v>
       </c>
       <c r="E47" s="3">
-        <v>325200</v>
+        <v>323000</v>
       </c>
       <c r="F47" s="3">
-        <v>181800</v>
+        <v>180600</v>
       </c>
       <c r="G47" s="3">
-        <v>128400</v>
+        <v>127500</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>24</v>
@@ -1660,7 +1660,7 @@
         <v>5800</v>
       </c>
       <c r="J47" s="3">
-        <v>10200</v>
+        <v>10100</v>
       </c>
       <c r="K47" s="3"/>
     </row>
@@ -1669,25 +1669,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7444500</v>
+        <v>7393400</v>
       </c>
       <c r="E48" s="3">
-        <v>1920000</v>
+        <v>1906800</v>
       </c>
       <c r="F48" s="3">
-        <v>1432900</v>
+        <v>1423100</v>
       </c>
       <c r="G48" s="3">
-        <v>1345800</v>
+        <v>1336600</v>
       </c>
       <c r="H48" s="3">
-        <v>1251900</v>
+        <v>1243300</v>
       </c>
       <c r="I48" s="3">
-        <v>153400</v>
+        <v>152400</v>
       </c>
       <c r="J48" s="3">
-        <v>264500</v>
+        <v>262600</v>
       </c>
       <c r="K48" s="3"/>
     </row>
@@ -1696,7 +1696,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>115000</v>
+        <v>114300</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>24</v>
@@ -1777,25 +1777,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>65300</v>
+        <v>64900</v>
       </c>
       <c r="E52" s="3">
-        <v>16100</v>
+        <v>15900</v>
       </c>
       <c r="F52" s="3">
-        <v>68400</v>
+        <v>67900</v>
       </c>
       <c r="G52" s="3">
-        <v>52000</v>
+        <v>51700</v>
       </c>
       <c r="H52" s="3">
-        <v>42000</v>
+        <v>41700</v>
       </c>
       <c r="I52" s="3">
-        <v>36800</v>
+        <v>36500</v>
       </c>
       <c r="J52" s="3">
-        <v>35500</v>
+        <v>35200</v>
       </c>
       <c r="K52" s="3"/>
     </row>
@@ -1831,25 +1831,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9081500</v>
+        <v>9019200</v>
       </c>
       <c r="E54" s="3">
-        <v>3280400</v>
+        <v>3257900</v>
       </c>
       <c r="F54" s="3">
-        <v>2193500</v>
+        <v>2178400</v>
       </c>
       <c r="G54" s="3">
-        <v>1905700</v>
+        <v>1892600</v>
       </c>
       <c r="H54" s="3">
-        <v>1665700</v>
+        <v>1654300</v>
       </c>
       <c r="I54" s="3">
-        <v>276500</v>
+        <v>274600</v>
       </c>
       <c r="J54" s="3">
-        <v>328500</v>
+        <v>326300</v>
       </c>
       <c r="K54" s="3"/>
     </row>
@@ -1884,25 +1884,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>267700</v>
+        <v>265900</v>
       </c>
       <c r="E57" s="3">
-        <v>172000</v>
+        <v>170800</v>
       </c>
       <c r="F57" s="3">
-        <v>138900</v>
+        <v>137900</v>
       </c>
       <c r="G57" s="3">
-        <v>88700</v>
+        <v>88100</v>
       </c>
       <c r="H57" s="3">
-        <v>92400</v>
+        <v>91800</v>
       </c>
       <c r="I57" s="3">
-        <v>14200</v>
+        <v>14100</v>
       </c>
       <c r="J57" s="3">
-        <v>14400</v>
+        <v>14300</v>
       </c>
       <c r="K57" s="3"/>
     </row>
@@ -1914,16 +1914,16 @@
         <v>8800</v>
       </c>
       <c r="E58" s="3">
-        <v>13100</v>
+        <v>13000</v>
       </c>
       <c r="F58" s="3">
-        <v>16000</v>
+        <v>15900</v>
       </c>
       <c r="G58" s="3">
-        <v>21000</v>
+        <v>20800</v>
       </c>
       <c r="H58" s="3">
-        <v>125500</v>
+        <v>124600</v>
       </c>
       <c r="I58" s="3">
         <v>3700</v>
@@ -1938,25 +1938,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>406200</v>
+        <v>403400</v>
       </c>
       <c r="E59" s="3">
-        <v>349700</v>
+        <v>347300</v>
       </c>
       <c r="F59" s="3">
-        <v>92200</v>
+        <v>91500</v>
       </c>
       <c r="G59" s="3">
-        <v>57700</v>
+        <v>57300</v>
       </c>
       <c r="H59" s="3">
-        <v>35500</v>
+        <v>35200</v>
       </c>
       <c r="I59" s="3">
-        <v>34000</v>
+        <v>33700</v>
       </c>
       <c r="J59" s="3">
-        <v>45000</v>
+        <v>44700</v>
       </c>
       <c r="K59" s="3"/>
     </row>
@@ -1965,25 +1965,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>682800</v>
+        <v>678100</v>
       </c>
       <c r="E60" s="3">
-        <v>534800</v>
+        <v>531100</v>
       </c>
       <c r="F60" s="3">
-        <v>247100</v>
+        <v>245400</v>
       </c>
       <c r="G60" s="3">
-        <v>167300</v>
+        <v>166200</v>
       </c>
       <c r="H60" s="3">
-        <v>253400</v>
+        <v>251700</v>
       </c>
       <c r="I60" s="3">
-        <v>51900</v>
+        <v>51500</v>
       </c>
       <c r="J60" s="3">
-        <v>64300</v>
+        <v>63900</v>
       </c>
       <c r="K60" s="3"/>
     </row>
@@ -1992,25 +1992,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>24700</v>
+        <v>24600</v>
       </c>
       <c r="E61" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="F61" s="3">
-        <v>12500</v>
+        <v>12400</v>
       </c>
       <c r="G61" s="3">
-        <v>28500</v>
+        <v>28300</v>
       </c>
       <c r="H61" s="3">
-        <v>19400</v>
+        <v>19300</v>
       </c>
       <c r="I61" s="3">
-        <v>27200</v>
+        <v>27000</v>
       </c>
       <c r="J61" s="3">
-        <v>32300</v>
+        <v>32100</v>
       </c>
       <c r="K61" s="3"/>
     </row>
@@ -2019,25 +2019,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1852100</v>
+        <v>1839300</v>
       </c>
       <c r="E62" s="3">
-        <v>408900</v>
+        <v>406100</v>
       </c>
       <c r="F62" s="3">
-        <v>313800</v>
+        <v>311700</v>
       </c>
       <c r="G62" s="3">
-        <v>225100</v>
+        <v>223600</v>
       </c>
       <c r="H62" s="3">
-        <v>230900</v>
+        <v>229300</v>
       </c>
       <c r="I62" s="3">
-        <v>36200</v>
+        <v>35900</v>
       </c>
       <c r="J62" s="3">
-        <v>73100</v>
+        <v>72600</v>
       </c>
       <c r="K62" s="3"/>
     </row>
@@ -2127,25 +2127,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2559600</v>
+        <v>2542000</v>
       </c>
       <c r="E66" s="3">
-        <v>950200</v>
+        <v>943700</v>
       </c>
       <c r="F66" s="3">
-        <v>573400</v>
+        <v>569500</v>
       </c>
       <c r="G66" s="3">
-        <v>421000</v>
+        <v>418100</v>
       </c>
       <c r="H66" s="3">
-        <v>503800</v>
+        <v>500300</v>
       </c>
       <c r="I66" s="3">
-        <v>115300</v>
+        <v>114500</v>
       </c>
       <c r="J66" s="3">
-        <v>169800</v>
+        <v>168600</v>
       </c>
       <c r="K66" s="3"/>
     </row>
@@ -2275,25 +2275,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2000500</v>
+        <v>1986800</v>
       </c>
       <c r="E72" s="3">
-        <v>1174700</v>
+        <v>1166600</v>
       </c>
       <c r="F72" s="3">
-        <v>547700</v>
+        <v>544000</v>
       </c>
       <c r="G72" s="3">
-        <v>218500</v>
+        <v>217000</v>
       </c>
       <c r="H72" s="3">
-        <v>-13000</v>
+        <v>-12900</v>
       </c>
       <c r="I72" s="3">
-        <v>-229800</v>
+        <v>-228300</v>
       </c>
       <c r="J72" s="3">
-        <v>-226700</v>
+        <v>-225100</v>
       </c>
       <c r="K72" s="3"/>
     </row>
@@ -2383,25 +2383,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6521900</v>
+        <v>6477200</v>
       </c>
       <c r="E76" s="3">
-        <v>2330200</v>
+        <v>2314200</v>
       </c>
       <c r="F76" s="3">
-        <v>1620100</v>
+        <v>1608900</v>
       </c>
       <c r="G76" s="3">
-        <v>1484700</v>
+        <v>1474500</v>
       </c>
       <c r="H76" s="3">
-        <v>1161900</v>
+        <v>1154000</v>
       </c>
       <c r="I76" s="3">
-        <v>161200</v>
+        <v>160100</v>
       </c>
       <c r="J76" s="3">
-        <v>158800</v>
+        <v>157700</v>
       </c>
       <c r="K76" s="3"/>
     </row>
@@ -2469,25 +2469,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1010300</v>
+        <v>1003400</v>
       </c>
       <c r="E81" s="3">
-        <v>718400</v>
+        <v>713400</v>
       </c>
       <c r="F81" s="3">
-        <v>351400</v>
+        <v>348900</v>
       </c>
       <c r="G81" s="3">
-        <v>169800</v>
+        <v>168700</v>
       </c>
       <c r="H81" s="3">
-        <v>54000</v>
+        <v>53600</v>
       </c>
       <c r="I81" s="3">
         <v>-3600</v>
       </c>
       <c r="J81" s="3">
-        <v>25600</v>
+        <v>25400</v>
       </c>
       <c r="K81" s="3"/>
     </row>
@@ -2509,25 +2509,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>491300</v>
+        <v>487900</v>
       </c>
       <c r="E83" s="3">
-        <v>216700</v>
+        <v>215200</v>
       </c>
       <c r="F83" s="3">
-        <v>171500</v>
+        <v>170300</v>
       </c>
       <c r="G83" s="3">
-        <v>190700</v>
+        <v>189400</v>
       </c>
       <c r="H83" s="3">
-        <v>75600</v>
+        <v>75100</v>
       </c>
       <c r="I83" s="3">
-        <v>51100</v>
+        <v>50800</v>
       </c>
       <c r="J83" s="3">
-        <v>50600</v>
+        <v>50200</v>
       </c>
       <c r="K83" s="3"/>
     </row>
@@ -2671,25 +2671,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1687600</v>
+        <v>1676100</v>
       </c>
       <c r="E89" s="3">
-        <v>1179200</v>
+        <v>1171100</v>
       </c>
       <c r="F89" s="3">
-        <v>703900</v>
+        <v>699000</v>
       </c>
       <c r="G89" s="3">
-        <v>380700</v>
+        <v>378100</v>
       </c>
       <c r="H89" s="3">
-        <v>231500</v>
+        <v>230000</v>
       </c>
       <c r="I89" s="3">
-        <v>98100</v>
+        <v>97400</v>
       </c>
       <c r="J89" s="3">
-        <v>95100</v>
+        <v>94500</v>
       </c>
       <c r="K89" s="3"/>
     </row>
@@ -2711,25 +2711,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-747400</v>
+        <v>-742300</v>
       </c>
       <c r="E91" s="3">
-        <v>-585400</v>
+        <v>-581400</v>
       </c>
       <c r="F91" s="3">
-        <v>-376600</v>
+        <v>-374000</v>
       </c>
       <c r="G91" s="3">
-        <v>-169100</v>
+        <v>-167900</v>
       </c>
       <c r="H91" s="3">
-        <v>-93700</v>
+        <v>-93100</v>
       </c>
       <c r="I91" s="3">
-        <v>-70900</v>
+        <v>-70400</v>
       </c>
       <c r="J91" s="3">
-        <v>-85600</v>
+        <v>-85000</v>
       </c>
       <c r="K91" s="3"/>
     </row>
@@ -2792,25 +2792,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-243400</v>
+        <v>-241700</v>
       </c>
       <c r="E94" s="3">
-        <v>-598800</v>
+        <v>-594700</v>
       </c>
       <c r="F94" s="3">
-        <v>-458500</v>
+        <v>-455300</v>
       </c>
       <c r="G94" s="3">
-        <v>-258400</v>
+        <v>-256700</v>
       </c>
       <c r="H94" s="3">
-        <v>-25300</v>
+        <v>-25100</v>
       </c>
       <c r="I94" s="3">
-        <v>-65100</v>
+        <v>-64700</v>
       </c>
       <c r="J94" s="3">
-        <v>-91100</v>
+        <v>-90400</v>
       </c>
       <c r="K94" s="3"/>
     </row>
@@ -2832,13 +2832,13 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-148700</v>
+        <v>-147700</v>
       </c>
       <c r="E96" s="3">
-        <v>-37800</v>
+        <v>-37500</v>
       </c>
       <c r="F96" s="3">
-        <v>-20900</v>
+        <v>-20800</v>
       </c>
       <c r="G96" s="3">
         <v>-4200</v>
@@ -2940,22 +2940,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1266500</v>
+        <v>-1257800</v>
       </c>
       <c r="E100" s="3">
-        <v>-109300</v>
+        <v>-108600</v>
       </c>
       <c r="F100" s="3">
-        <v>-88500</v>
+        <v>-87900</v>
       </c>
       <c r="G100" s="3">
-        <v>-142900</v>
+        <v>-141900</v>
       </c>
       <c r="H100" s="3">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="I100" s="3">
-        <v>-24200</v>
+        <v>-24000</v>
       </c>
       <c r="J100" s="3">
         <v>6900</v>
@@ -2970,13 +2970,13 @@
         <v>2400</v>
       </c>
       <c r="E101" s="3">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="F101" s="3">
-        <v>-27800</v>
+        <v>-27600</v>
       </c>
       <c r="G101" s="3">
-        <v>16400</v>
+        <v>16300</v>
       </c>
       <c r="H101" s="3">
         <v>-1700</v>
@@ -2985,7 +2985,7 @@
         <v>-5200</v>
       </c>
       <c r="J101" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="K101" s="3"/>
     </row>
@@ -2994,19 +2994,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>180100</v>
+        <v>178900</v>
       </c>
       <c r="E102" s="3">
-        <v>480900</v>
+        <v>477600</v>
       </c>
       <c r="F102" s="3">
-        <v>129100</v>
+        <v>128200</v>
       </c>
       <c r="G102" s="3">
         <v>-4200</v>
       </c>
       <c r="H102" s="3">
-        <v>214400</v>
+        <v>213000</v>
       </c>
       <c r="I102" s="3">
         <v>3500</v>
